--- a/table/biomass_permanova.xlsx
+++ b/table/biomass_permanova.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,37 +390,54 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.583988084513391</v>
+        <v>0.8740278822251073</v>
       </c>
       <c r="C2">
-        <v>0.04686598528541525</v>
+        <v>0.06870153376771632</v>
       </c>
       <c r="D2">
-        <v>1.524282547279488</v>
+        <v>2.922387458680074</v>
       </c>
       <c r="E2">
-        <v>0.08943</v>
+        <v>0.01346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>11.8768207719928</v>
+        <v>5.268311750865272</v>
       </c>
       <c r="C3">
-        <v>0.9531340147145848</v>
+        <v>0.4141070382440141</v>
+      </c>
+      <c r="D3">
+        <v>1.957228202676015</v>
+      </c>
+      <c r="E3">
+        <v>0.00132</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>6.579761814895401</v>
+      </c>
+      <c r="C4">
+        <v>0.51719142798827</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
         <v>32</v>
       </c>
-      <c r="B4">
-        <v>12.46080885650619</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <v>12.72210144798578</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
@@ -474,19 +491,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.02878732565577795</v>
+        <v>2.994149613517597e-005</v>
       </c>
       <c r="C2">
-        <v>0.02878732565577795</v>
+        <v>2.994149613517597e-005</v>
       </c>
       <c r="D2">
-        <v>2.804404365325029</v>
+        <v>0.001278238776438813</v>
       </c>
       <c r="E2">
         <v>999</v>
       </c>
       <c r="F2">
-        <v>0.111</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
@@ -494,10 +511,10 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.3182162695092249</v>
+        <v>0.7261447526857168</v>
       </c>
       <c r="C3">
-        <v>0.01026504095191048</v>
+        <v>0.02342402428018441</v>
       </c>
     </row>
   </sheetData>

--- a/table/biomass_permanova.xlsx
+++ b/table/biomass_permanova.xlsx
@@ -390,16 +390,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8740278822251073</v>
+        <v>0.6856951883504207</v>
       </c>
       <c r="C2">
-        <v>0.06870153376771632</v>
+        <v>0.05578380333889565</v>
       </c>
       <c r="D2">
-        <v>2.922387458680074</v>
+        <v>2.417872950276277</v>
       </c>
       <c r="E2">
-        <v>0.01346</v>
+        <v>0.00599</v>
       </c>
     </row>
     <row r="3">
@@ -407,16 +407,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>5.268311750865272</v>
+        <v>5.367240526810025</v>
       </c>
       <c r="C3">
-        <v>0.4141070382440141</v>
+        <v>0.4366445836383963</v>
       </c>
       <c r="D3">
-        <v>1.957228202676015</v>
+        <v>2.102862727715001</v>
       </c>
       <c r="E3">
-        <v>0.00132</v>
+        <v>1e-005</v>
       </c>
     </row>
     <row r="4">
@@ -424,10 +424,10 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>6.579761814895401</v>
+        <v>6.239076433683392</v>
       </c>
       <c r="C4">
-        <v>0.51719142798827</v>
+        <v>0.5075716130227084</v>
       </c>
     </row>
     <row r="5">
@@ -435,7 +435,7 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>12.72210144798578</v>
+        <v>12.29201214884384</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -491,19 +491,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.994149613517597e-005</v>
+        <v>0.01018825103872631</v>
       </c>
       <c r="C2">
-        <v>2.994149613517597e-005</v>
+        <v>0.01018825103872631</v>
       </c>
       <c r="D2">
-        <v>0.001278238776438813</v>
+        <v>0.8071278233554399</v>
       </c>
       <c r="E2">
         <v>999</v>
       </c>
       <c r="F2">
-        <v>0.98</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         <v>31</v>
       </c>
       <c r="B3">
-        <v>0.7261447526857168</v>
+        <v>0.3913082575787121</v>
       </c>
       <c r="C3">
-        <v>0.02342402428018441</v>
+        <v>0.01262284701866813</v>
       </c>
     </row>
   </sheetData>

--- a/table/biomass_permanova.xlsx
+++ b/table/biomass_permanova.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -361,83 +361,108 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>rownames(biomass_permanova)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Df</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SumOfSqs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Pr(&gt;F)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Cruise</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.6856951883504207</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.05578380333889565</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2.417872950276277</v>
       </c>
-      <c r="E2">
-        <v>0.00599</v>
+      <c r="F2">
+        <v>0.005</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cruise:Station</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>5.367240526810025</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.4366445836383963</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.102862727715001</v>
       </c>
-      <c r="E3">
-        <v>1e-005</v>
+      <c r="F3">
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Residual</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>22</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>6.239076433683392</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.5075716130227084</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>32</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>12.29201214884384</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
@@ -448,7 +473,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,63 +482,78 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>rownames(biomass_permdisp$tab)</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Df</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Sum Sq</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Mean Sq</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N.Perm</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Pr(&gt;F)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Groups</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.01018825103872631</v>
       </c>
       <c r="C2">
         <v>0.01018825103872631</v>
       </c>
       <c r="D2">
+        <v>0.01018825103872631</v>
+      </c>
+      <c r="E2">
         <v>0.8071278233554399</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>999</v>
       </c>
-      <c r="F2">
-        <v>0.378</v>
+      <c r="G2">
+        <v>0.361</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Residuals</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>31</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.3913082575787121</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.01262284701866813</v>
       </c>
     </row>
